--- a/data/trans_bre/P2A_ner_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6809339944295681</v>
+        <v>0.4892141154803715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.073898016065035</v>
+        <v>1.084138847227879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.559997757976654</v>
+        <v>7.883086399846164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2517819255138328</v>
+        <v>0.3526840319722191</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1116592032733501</v>
+        <v>0.07323623725931214</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1756312982196575</v>
+        <v>0.1586819654210788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.796725459336553</v>
+        <v>0.8504724427425643</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.01981951673303883</v>
+        <v>0.03555149088602069</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.405150833910172</v>
+        <v>4.149519699290751</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.228212451890365</v>
+        <v>5.032531324165169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.15500332746167</v>
+        <v>13.96495514421911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.869916822660669</v>
+        <v>4.737462886278853</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.310657547272806</v>
+        <v>1.185359969517097</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.450121992275131</v>
+        <v>1.441383972313452</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.235826738661026</v>
+        <v>2.271760699978713</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.308899282516314</v>
+        <v>1.299624943208698</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>1.396974920700344</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3304644839420801</v>
+        <v>0.3304644839420798</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6405564485809351</v>
+        <v>0.6556023378283278</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06967450509983891</v>
+        <v>0.1465100203391881</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.792775653276586</v>
+        <v>3.728432677054558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.1734623695889349</v>
+        <v>-0.0641510387289637</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2302173145526449</v>
+        <v>0.2734935734922736</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00755707153309845</v>
+        <v>0.01096556631669196</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8659883922806428</v>
+        <v>0.8235036966854223</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04438070115234494</v>
+        <v>-0.0237510299825377</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.069656703265877</v>
+        <v>2.904155067241519</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.316596715660354</v>
+        <v>2.300179241273214</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.990768000800846</v>
+        <v>6.876363400247494</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.168390678855412</v>
+        <v>2.193410304782906</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.164695613094746</v>
+        <v>1.964310411938483</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.274863645760363</v>
+        <v>1.383452052377456</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.163533687025057</v>
+        <v>2.157043042028084</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8159467952881051</v>
+        <v>0.8120441012027305</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.468777995007061</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2311546116806638</v>
+        <v>0.2311546116806642</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3584973736463542</v>
@@ -849,7 +849,7 @@
         <v>0.4874050149381188</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0898963199314475</v>
+        <v>0.08989631993144766</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.506045817311859</v>
+        <v>-2.586656095668022</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.137219715182982</v>
+        <v>-3.258384488819561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8326829302495092</v>
+        <v>-0.9833702171802059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.545185446712183</v>
+        <v>-1.437807073525957</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.762303686407411</v>
+        <v>-0.8077447485164359</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6321972759146224</v>
+        <v>-0.6293117001489333</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2364536341329719</v>
+        <v>-0.2904601305271945</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4377789703425017</v>
+        <v>-0.4095594250890813</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.84957403980434</v>
+        <v>0.7392683506332711</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.647692744493876</v>
+        <v>1.990647668124626</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.002339278841757</v>
+        <v>4.117851122499755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.934880989200495</v>
+        <v>1.872262158555145</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6545023947817206</v>
+        <v>0.6110741273886305</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.67698951838709</v>
+        <v>0.8359075065298641</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.116598315452707</v>
+        <v>1.983467338354484</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.244347047888621</v>
+        <v>1.221836713845656</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.461181443649017</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.373855013770161</v>
+        <v>1.37385501377016</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6525473946274547</v>
@@ -949,7 +949,7 @@
         <v>1.424750658359012</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4006756728129623</v>
+        <v>0.4006756728129618</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9177324398196167</v>
+        <v>0.882364268358772</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8608270874785816</v>
+        <v>0.909425112075116</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.148806989592996</v>
+        <v>5.140753076258727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5098382291833268</v>
+        <v>0.4635908013620678</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2848958823470389</v>
+        <v>0.28161663649292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2357127585382409</v>
+        <v>0.2619493968880304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.038784259993711</v>
+        <v>1.011702928902542</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1292728575881301</v>
+        <v>0.1148739729430923</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.757062442776589</v>
+        <v>2.768021211895434</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.691395245652313</v>
+        <v>2.858764863991135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.82855548618431</v>
+        <v>7.868643277849596</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.24170016749726</v>
+        <v>2.304896436576727</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.155446451255065</v>
+        <v>1.143049023144366</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.004258263385857</v>
+        <v>1.074922650005049</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.976242841994104</v>
+        <v>1.968983047368073</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7298892734648094</v>
+        <v>0.7721189181197092</v>
       </c>
     </row>
     <row r="16">
